--- a/Docs/Спецификация.xlsx
+++ b/Docs/Спецификация.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
   <si>
     <t>№</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Характеристика</t>
   </si>
   <si>
-    <t>Количество</t>
-  </si>
-  <si>
     <t>Цена за шт.</t>
   </si>
   <si>
@@ -57,12 +54,6 @@
     <t>Светодиод</t>
   </si>
   <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
     <t>Резистор</t>
   </si>
   <si>
@@ -84,9 +75,6 @@
     <t>AMS1117-3.3</t>
   </si>
   <si>
-    <t>U9</t>
-  </si>
-  <si>
     <t>LM1117MPX-5.0</t>
   </si>
   <si>
@@ -99,9 +87,6 @@
     <t>1206 - Зеленый</t>
   </si>
   <si>
-    <t>1206 - 180 Ом</t>
-  </si>
-  <si>
     <t>1206 - 10 кОм</t>
   </si>
   <si>
@@ -117,21 +102,12 @@
     <t>Тантал B - 10mkF</t>
   </si>
   <si>
-    <t>Тантал B - 1mkF</t>
-  </si>
-  <si>
     <t>C1, C2</t>
   </si>
   <si>
-    <t>C3, C6, C8, C9, C12, C13</t>
-  </si>
-  <si>
     <t>C4, C5, C7</t>
   </si>
   <si>
-    <t>C10, C14</t>
-  </si>
-  <si>
     <t>Кварц</t>
   </si>
   <si>
@@ -216,18 +192,6 @@
     <t>ИТОГО</t>
   </si>
   <si>
-    <t>MicroSD Flash 32GB</t>
-  </si>
-  <si>
-    <t>Батарейка CR2032</t>
-  </si>
-  <si>
-    <t>Корпус D2MG</t>
-  </si>
-  <si>
-    <t>Блок питания</t>
-  </si>
-  <si>
     <t>Печатная плата</t>
   </si>
   <si>
@@ -235,6 +199,63 @@
   </si>
   <si>
     <t>Цена при партии</t>
+  </si>
+  <si>
+    <t>HL1</t>
+  </si>
+  <si>
+    <t>HL2</t>
+  </si>
+  <si>
+    <t>1206 - 330 Ом</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>C3, C6, C8, C9, C10, C11, C12, C13</t>
+  </si>
+  <si>
+    <t>Дополнительные расходы</t>
+  </si>
+  <si>
+    <t>Разработка</t>
+  </si>
+  <si>
+    <t>НДС</t>
+  </si>
+  <si>
+    <t>Поправочный коэфф.</t>
+  </si>
+  <si>
+    <t>Себестоимость изделия</t>
+  </si>
+  <si>
+    <t>Себестоимость компонентов</t>
+  </si>
+  <si>
+    <t>Кабель RS-232 GC-DB9CM2F</t>
+  </si>
+  <si>
+    <t>MicroSD Flash SanDisk 32GB</t>
+  </si>
+  <si>
+    <t>Батарейка CR2032 Renata</t>
+  </si>
+  <si>
+    <t>Корпус Gainta D2MG</t>
+  </si>
+  <si>
+    <t>Блок питания MeanWell</t>
+  </si>
+  <si>
+    <t>Провода питания</t>
+  </si>
+  <si>
+    <t>Кол-во</t>
+  </si>
+  <si>
+    <t>Итоговый расчет</t>
   </si>
 </sst>
 </file>
@@ -244,7 +265,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +286,32 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -291,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -323,24 +370,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -646,35 +751,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1"/>
     <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="A1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -682,732 +787,725 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
         <v>12.5</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="9">
         <f>E4*F4</f>
         <v>12.5</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="I4" s="9">
+        <f>H4*E4</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
         <v>5</v>
       </c>
-      <c r="I4" s="4">
-        <f>H4*E4</f>
+      <c r="G5" s="9">
+        <f t="shared" ref="G5:G23" si="0">E5*F5</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="H5" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" ref="I5:I23" si="1">H5*E5</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
         <v>5</v>
       </c>
-      <c r="G5" s="4">
-        <f t="shared" ref="G5:G24" si="0">E5*F5</f>
-        <v>5</v>
-      </c>
-      <c r="H5" s="4">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" ref="I5:I24" si="1">H5*E5</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>5</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="G6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H6" s="4">
-        <v>3</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="H6" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="I6" s="9">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="8">
         <v>2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="9">
         <v>0.6</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="H7" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="H7" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="I7" s="9">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8">
         <v>6</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="9">
         <v>0.6</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="H8" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="H8" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="I8" s="9">
         <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="8">
         <v>3</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="9">
         <v>0.6</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="H9" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="H9" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="I9" s="9">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="B10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
         <v>22</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H10" s="4">
-        <v>3</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="H10" s="9">
+        <v>8</v>
+      </c>
+      <c r="I10" s="9">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
         <v>14.5</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
-      <c r="H11" s="4">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="H11" s="9">
+        <v>7</v>
+      </c>
+      <c r="I11" s="9">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="B12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="8">
         <v>2</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="9">
         <v>1.4</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="H12" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="2">
-        <v>6</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="8">
+        <v>8</v>
+      </c>
+      <c r="F13" s="9">
         <v>1.4</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="9">
         <f t="shared" si="0"/>
-        <v>8.3999999999999986</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="I13" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9">
         <f t="shared" si="1"/>
-        <v>1.7999999999999998</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="B14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="8">
         <v>3</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="9">
         <v>1.4</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="H14" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="H14" s="9">
+        <v>3.65</v>
+      </c>
+      <c r="I14" s="9">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="B15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
         <v>10</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H16" s="4">
-        <v>3</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="H15" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="I15" s="9">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="B16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
         <v>6</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H17" s="4">
-        <v>2</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="H16" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="I16" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="B17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
         <v>20</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G17" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H18" s="4">
-        <v>5</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="H17" s="9">
+        <v>16</v>
+      </c>
+      <c r="I17" s="9">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
         <v>20</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G18" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H19" s="4">
-        <v>10</v>
-      </c>
-      <c r="I19" s="4">
+      <c r="H18" s="9">
+        <v>12</v>
+      </c>
+      <c r="I18" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="B19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
         <v>130</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G19" s="9">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H19" s="9">
         <v>15</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I19" s="9">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="B20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="8">
         <v>0.25</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F20" s="9">
         <v>8.5</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G20" s="9">
         <f t="shared" si="0"/>
         <v>2.125</v>
       </c>
-      <c r="H21" s="4">
-        <v>3</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="H20" s="9">
+        <v>4</v>
+      </c>
+      <c r="I20" s="9">
         <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="B21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9">
         <v>64</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G21" s="9">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="H22" s="4">
-        <v>15</v>
-      </c>
-      <c r="I22" s="4">
+      <c r="H21" s="9">
+        <v>32</v>
+      </c>
+      <c r="I21" s="9">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="B22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
         <v>190</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G22" s="9">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="H23" s="4">
-        <v>80</v>
-      </c>
-      <c r="I23" s="4">
+      <c r="H22" s="9">
+        <v>120</v>
+      </c>
+      <c r="I22" s="9">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="B23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
         <v>30</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G23" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H24" s="4">
-        <v>15</v>
-      </c>
-      <c r="I24" s="4">
+      <c r="H23" s="9">
+        <v>8</v>
+      </c>
+      <c r="I23" s="9">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="5">
-        <f>SUM(G4:G24)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="10">
+        <f>SUM(G4:G23)</f>
         <v>555.92499999999995</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="5">
-        <f>SUM(I4:I24)</f>
-        <v>168.75</v>
-      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10">
+        <f>SUM(I4:I23)</f>
+        <v>263.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>72</v>
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="4">
+        <v>700</v>
+      </c>
+      <c r="D27" s="4">
+        <v>590</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1416,16 +1514,16 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C28" s="4">
-        <v>700</v>
+        <v>50</v>
       </c>
       <c r="D28" s="4">
-        <v>600</v>
+        <v>40</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1434,16 +1532,16 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C29" s="4">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="D29" s="4">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1452,16 +1550,16 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C30" s="4">
-        <v>230</v>
+        <v>700</v>
       </c>
       <c r="D30" s="4">
-        <v>111</v>
+        <v>770</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1470,16 +1568,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C31" s="4">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="D31" s="4">
-        <v>700</v>
+        <v>120</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1488,16 +1586,16 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C32" s="4">
-        <v>2500</v>
+        <v>150</v>
       </c>
       <c r="D32" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1506,16 +1604,16 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="4">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D33" s="4">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1523,17 +1621,17 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="5">
-        <f>SUM(C28:C33)</f>
-        <v>4330</v>
-      </c>
-      <c r="D34" s="5">
-        <f>SUM(D28:D33)</f>
-        <v>1701</v>
+      <c r="A34" s="3">
+        <v>10</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="4">
+        <v>20</v>
+      </c>
+      <c r="D34" s="4">
+        <v>20</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1541,42 +1639,100 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="5">
+        <f>SUM(C27:C34)</f>
+        <v>4470</v>
+      </c>
+      <c r="D35" s="5">
+        <f>SUM(D27:D34)</f>
+        <v>1937</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="6"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="5">
+        <f>I24+D35</f>
+        <v>2200.0500000000002</v>
+      </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="4">
+        <f>C37*100%</f>
+        <v>2200.0500000000002</v>
+      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="4">
+        <f>0.2*(C38+C37)</f>
+        <v>880.0200000000001</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="4">
+        <f>0.18*(C37+C38+C39)</f>
+        <v>950.42160000000013</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="11">
+        <f>SUM(C37:C40)</f>
+        <v>6230.5416000000005</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -1637,14 +1793,21 @@
       <c r="I50" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="12">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A25:D25"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>

--- a/Docs/Спецификация.xlsx
+++ b/Docs/Спецификация.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="93">
   <si>
     <t>№</t>
   </si>
@@ -75,18 +75,9 @@
     <t>AMS1117-3.3</t>
   </si>
   <si>
-    <t>LM1117MPX-5.0</t>
-  </si>
-  <si>
     <t>Конденсатор</t>
   </si>
   <si>
-    <t>1206 - Красный</t>
-  </si>
-  <si>
-    <t>1206 - Зеленый</t>
-  </si>
-  <si>
     <t>1206 - 10 кОм</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t>C1, C2</t>
   </si>
   <si>
-    <t>C4, C5, C7</t>
-  </si>
-  <si>
     <t>Кварц</t>
   </si>
   <si>
@@ -144,18 +132,12 @@
     <t>Держатель батарейки</t>
   </si>
   <si>
-    <t>U6</t>
-  </si>
-  <si>
     <t>CH74-2032</t>
   </si>
   <si>
     <t>Штыри DIP</t>
   </si>
   <si>
-    <t>J1</t>
-  </si>
-  <si>
     <t>PLS-40</t>
   </si>
   <si>
@@ -201,42 +183,15 @@
     <t>Цена при партии</t>
   </si>
   <si>
-    <t>HL1</t>
-  </si>
-  <si>
-    <t>HL2</t>
-  </si>
-  <si>
     <t>1206 - 330 Ом</t>
   </si>
   <si>
-    <t>U7</t>
-  </si>
-  <si>
     <t>C3, C6, C8, C9, C10, C11, C12, C13</t>
   </si>
   <si>
     <t>Дополнительные расходы</t>
   </si>
   <si>
-    <t>Разработка</t>
-  </si>
-  <si>
-    <t>НДС</t>
-  </si>
-  <si>
-    <t>Поправочный коэфф.</t>
-  </si>
-  <si>
-    <t>Себестоимость изделия</t>
-  </si>
-  <si>
-    <t>Себестоимость компонентов</t>
-  </si>
-  <si>
-    <t>Кабель RS-232 GC-DB9CM2F</t>
-  </si>
-  <si>
     <t>MicroSD Flash SanDisk 32GB</t>
   </si>
   <si>
@@ -246,16 +201,100 @@
     <t>Корпус Gainta D2MG</t>
   </si>
   <si>
-    <t>Блок питания MeanWell</t>
-  </si>
-  <si>
-    <t>Провода питания</t>
-  </si>
-  <si>
     <t>Кол-во</t>
   </si>
   <si>
-    <t>Итоговый расчет</t>
+    <t>3мм - Красный</t>
+  </si>
+  <si>
+    <t>3мм - Зеленый</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>C5, C7</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>Кабель MiniUSB - USB</t>
+  </si>
+  <si>
+    <t>Джампер</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>MJ-C</t>
+  </si>
+  <si>
+    <t>Наконечники для кабеля</t>
+  </si>
+  <si>
+    <t>Chipster</t>
+  </si>
+  <si>
+    <t>Поставщик</t>
+  </si>
+  <si>
+    <t>Чип и Дип</t>
+  </si>
+  <si>
+    <t>Gainta</t>
+  </si>
+  <si>
+    <t>Резонит</t>
+  </si>
+  <si>
+    <t>Чебоксары</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Кабель RS232</t>
+  </si>
+  <si>
+    <t>Упаковка</t>
+  </si>
+  <si>
+    <t>Наклейки</t>
+  </si>
+  <si>
+    <t>Джимара</t>
+  </si>
+  <si>
+    <t>Получено</t>
+  </si>
+  <si>
+    <t>Электронщик</t>
+  </si>
+  <si>
+    <t>J1, J5, J4</t>
+  </si>
+  <si>
+    <t>Дозаказано</t>
+  </si>
+  <si>
+    <t>Oldi</t>
+  </si>
+  <si>
+    <t>Ситилинк</t>
+  </si>
+  <si>
+    <t>Чип И Дип</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>дозаказать 100 шт</t>
   </si>
 </sst>
 </file>
@@ -265,12 +304,36 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,17 +371,8 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,8 +391,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -381,72 +453,52 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,734 +801,876 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5546875" customWidth="1"/>
     <col min="2" max="2" width="24.77734375" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
     <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="8.109375" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="31"/>
+      <c r="H2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>12.5</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <f>E4*F4</f>
         <v>12.5</v>
       </c>
-      <c r="H4" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="H4" s="8">
+        <v>6.44</v>
+      </c>
+      <c r="I4" s="8">
         <f>H4*E4</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+        <v>6.44</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="C5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>5</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <f t="shared" ref="G5:G23" si="0">E5*F5</f>
         <v>5</v>
       </c>
-      <c r="H5" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="H5" s="8">
+        <v>2</v>
+      </c>
+      <c r="I5" s="8">
         <f t="shared" ref="I5:I23" si="1">H5*E5</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="C6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>5</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H6" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="H6" s="8">
+        <v>2</v>
+      </c>
+      <c r="I6" s="8">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="7">
         <v>2</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>0.6</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8">
         <v>0.6</v>
       </c>
-      <c r="I7" s="9">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="8">
-        <v>6</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="1"/>
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3</v>
+      </c>
+      <c r="F9" s="8">
         <v>0.6</v>
       </c>
-      <c r="I8" s="9">
-        <f t="shared" si="1"/>
-        <v>3.5999999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>6</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="8">
-        <v>3</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="H9" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="I9" s="9">
+      <c r="H9" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I9" s="8">
         <f t="shared" si="1"/>
-        <v>1.7999999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>22</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="I10" s="9">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9">
-        <v>14.5</v>
-      </c>
-      <c r="G11" s="9">
-        <f t="shared" si="0"/>
-        <v>14.5</v>
-      </c>
-      <c r="H11" s="9">
-        <v>7</v>
-      </c>
-      <c r="I11" s="9">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>9</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="8">
+      <c r="D11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="7">
         <v>2</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F11" s="8">
         <v>1.4</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G11" s="8">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="H12" s="9">
-        <v>1</v>
-      </c>
-      <c r="I12" s="9">
+      <c r="H11" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="I11" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>10</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="7">
         <v>8</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F12" s="8">
         <v>1.4</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9">
+      <c r="H12" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="I12" s="8">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>11</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="8">
+        <v>10.4</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="7">
         <v>3</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F13" s="8">
         <v>1.4</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="H14" s="9">
-        <v>3.65</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="H13" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I13" s="8">
         <f t="shared" si="1"/>
-        <v>10.95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="8">
+        <v>13.799999999999999</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F14" s="8">
         <v>10</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G14" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H15" s="9">
-        <v>4.5</v>
-      </c>
-      <c r="I15" s="9">
+      <c r="H14" s="8">
+        <v>5.52</v>
+      </c>
+      <c r="I14" s="8">
         <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8" t="s">
+        <v>5.52</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="E15" s="7">
         <v>1</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F15" s="8">
         <v>6</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G15" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H16" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="I16" s="9">
+      <c r="H15" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I15" s="8">
         <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="7">
         <v>1</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F16" s="8">
         <v>20</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G16" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H17" s="9">
-        <v>16</v>
-      </c>
-      <c r="I17" s="9">
+      <c r="H16" s="8">
+        <v>17.5</v>
+      </c>
+      <c r="I16" s="8">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="8">
+        <v>17.5</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="7">
         <v>1</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F17" s="8">
         <v>20</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G17" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H17" s="8">
         <v>12</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I17" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>17</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="J17" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="7">
         <v>1</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F18" s="8">
         <v>130</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G18" s="8">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="H19" s="9">
-        <v>15</v>
-      </c>
-      <c r="I19" s="9">
+      <c r="H18" s="8">
+        <v>11</v>
+      </c>
+      <c r="I18" s="8">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+        <v>11</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="H19" s="8">
+        <v>7.82</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="1"/>
+        <v>7.82</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="F20" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="G20" s="9">
-        <f t="shared" si="0"/>
-        <v>2.125</v>
-      </c>
-      <c r="H20" s="9">
-        <v>4</v>
-      </c>
-      <c r="I20" s="9">
-        <f t="shared" si="1"/>
+      <c r="B20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>19</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="8">
-        <v>1</v>
-      </c>
-      <c r="F21" s="9">
+      <c r="F20" s="8">
         <v>64</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G20" s="8">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="H21" s="9">
-        <v>32</v>
-      </c>
-      <c r="I21" s="9">
+      <c r="H20" s="8">
+        <v>70</v>
+      </c>
+      <c r="I20" s="8">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="8">
+        <v>70</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="7">
         <v>1</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F21" s="8">
         <v>190</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G21" s="8">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="H22" s="9">
-        <v>120</v>
-      </c>
-      <c r="I22" s="9">
+      <c r="H21" s="8">
+        <v>121</v>
+      </c>
+      <c r="I21" s="8">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <v>21</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="8">
+        <v>121</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="7">
         <v>1</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F22" s="8">
         <v>30</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G22" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H23" s="9">
-        <v>8</v>
-      </c>
-      <c r="I23" s="9">
+      <c r="H22" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I22" s="8">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="7">
+        <v>3</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="1"/>
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="22">
+        <f>SUM(G4:G23)</f>
+        <v>553.79999999999995</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="22">
+        <f>SUM(I4:I23)</f>
+        <v>314.68</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="10">
-        <f>SUM(G4:G23)</f>
-        <v>555.92499999999995</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10">
-        <f>SUM(I4:I23)</f>
-        <v>263.05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="F25" s="1"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
@@ -1487,118 +1681,143 @@
         <v>5</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C27" s="4">
         <v>700</v>
       </c>
       <c r="D27" s="4">
-        <v>590</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+        <v>730</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C28" s="4">
         <v>50</v>
       </c>
       <c r="D28" s="4">
-        <v>40</v>
-      </c>
-      <c r="F28" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C29" s="4">
         <v>230</v>
       </c>
-      <c r="D29" s="4">
-        <v>127</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="D29" s="16">
+        <v>135</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>4</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C30" s="4">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="D30" s="4">
-        <v>770</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="4">
-        <v>2500</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C31" s="4"/>
       <c r="D31" s="4">
-        <v>120</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" t="s">
+        <v>91</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="4">
-        <v>150</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C32" s="4"/>
       <c r="D32" s="4">
-        <v>150</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
@@ -1607,148 +1826,136 @@
         <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="4">
-        <v>120</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="4">
-        <v>120</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="4">
-        <v>20</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="4">
-        <v>20</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="19"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="5">
-        <f>SUM(C27:C34)</f>
-        <v>4470</v>
-      </c>
-      <c r="D35" s="5">
-        <f>SUM(D27:D34)</f>
-        <v>1937</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="A35" s="3">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="4">
+        <v>7</v>
+      </c>
+      <c r="D35" s="4">
+        <v>7</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="6"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>10</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="5">
-        <f>I24+D35</f>
-        <v>2200.0500000000002</v>
-      </c>
-      <c r="F37" s="1"/>
+      <c r="A37" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="15">
+        <f>SUM(C27:C33)</f>
+        <v>3480</v>
+      </c>
+      <c r="D37" s="15">
+        <f>SUM(D27:D36)</f>
+        <v>1523</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="24"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="4">
-        <f>C37*100%</f>
-        <v>2200.0500000000002</v>
-      </c>
+      <c r="A38" s="5"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="4">
-        <f>0.2*(C38+C37)</f>
-        <v>880.0200000000001</v>
-      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="4">
-        <f>0.18*(C37+C38+C39)</f>
-        <v>950.42160000000013</v>
-      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="11">
-        <f>SUM(C37:C40)</f>
-        <v>6230.5416000000005</v>
-      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F44" s="1"/>
@@ -1792,20 +1999,26 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
+    <row r="51" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="6">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Docs/Спецификация.xlsx
+++ b/Docs/Спецификация.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="89">
   <si>
     <t>№</t>
   </si>
@@ -252,9 +252,6 @@
     <t>Резонит</t>
   </si>
   <si>
-    <t>Чебоксары</t>
-  </si>
-  <si>
     <t>Статус</t>
   </si>
   <si>
@@ -279,22 +276,13 @@
     <t>J1, J5, J4</t>
   </si>
   <si>
-    <t>Дозаказано</t>
-  </si>
-  <si>
     <t>Oldi</t>
   </si>
   <si>
     <t>Ситилинк</t>
   </si>
   <si>
-    <t>Чип И Дип</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>дозаказать 100 шт</t>
+    <t>ЭТС</t>
   </si>
 </sst>
 </file>
@@ -372,7 +360,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,12 +376,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -476,15 +458,14 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -801,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -823,43 +804,43 @@
     <col min="12" max="12" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="9"/>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="31"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="10" t="s">
         <v>74</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -890,7 +871,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -923,11 +904,11 @@
       <c r="J4" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K4" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -960,11 +941,11 @@
       <c r="J5" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K5" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K5" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -997,11 +978,11 @@
       <c r="J6" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K6" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1034,11 +1015,11 @@
       <c r="J7" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K7" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1071,11 +1052,11 @@
       <c r="J8" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K8" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1108,11 +1089,11 @@
       <c r="J9" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K9" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1145,11 +1126,11 @@
       <c r="J10" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K10" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1182,11 +1163,11 @@
       <c r="J11" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K11" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1219,11 +1200,11 @@
       <c r="J12" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K12" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1257,13 +1238,10 @@
         <v>73</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1297,13 +1275,10 @@
         <v>73</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -1336,11 +1311,11 @@
       <c r="J15" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K15" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -1373,8 +1348,8 @@
       <c r="J16" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K16" s="18" t="s">
-        <v>84</v>
+      <c r="K16" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1410,8 +1385,8 @@
       <c r="J17" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K17" s="18" t="s">
-        <v>84</v>
+      <c r="K17" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1444,11 +1419,11 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="K18" s="26" t="s">
-        <v>84</v>
+      <c r="K18" s="25" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1459,7 +1434,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>40</v>
@@ -1484,8 +1459,8 @@
       <c r="J19" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K19" s="18" t="s">
-        <v>84</v>
+      <c r="K19" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1518,11 +1493,11 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="J20" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="K20" s="18" t="s">
+      <c r="J20" s="20" t="s">
         <v>84</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1558,8 +1533,8 @@
       <c r="J21" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="K21" s="18" t="s">
-        <v>84</v>
+      <c r="K21" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1595,8 +1570,8 @@
       <c r="J22" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="18" t="s">
-        <v>84</v>
+      <c r="K22" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1632,25 +1607,25 @@
       <c r="J23" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="18" t="s">
-        <v>84</v>
+      <c r="K23" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="22">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="21">
         <f>SUM(G4:G23)</f>
         <v>553.79999999999995</v>
       </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="22">
+      <c r="H24" s="22"/>
+      <c r="I24" s="21">
         <f>SUM(I4:I23)</f>
         <v>314.68</v>
       </c>
@@ -1658,12 +1633,12 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="13"/>
       <c r="F25" s="14"/>
       <c r="G25" s="1"/>
@@ -1687,7 +1662,7 @@
         <v>74</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1707,10 +1682,10 @@
         <v>730</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1731,8 +1706,8 @@
       <c r="E28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="20" t="s">
-        <v>84</v>
+      <c r="F28" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1754,8 +1729,8 @@
       <c r="E29" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>84</v>
+      <c r="F29" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1776,8 +1751,8 @@
       <c r="E30" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="20" t="s">
-        <v>84</v>
+      <c r="F30" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1791,15 +1766,12 @@
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F31" s="19"/>
-      <c r="G31" t="s">
-        <v>91</v>
-      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
@@ -1815,8 +1787,8 @@
         <v>10</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="20" t="s">
-        <v>84</v>
+      <c r="F32" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1833,10 +1805,10 @@
         <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1846,16 +1818,16 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4">
         <v>150</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="19"/>
+        <v>87</v>
+      </c>
+      <c r="F34" s="18"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
@@ -1864,7 +1836,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="4">
         <v>7</v>
@@ -1873,10 +1845,10 @@
         <v>7</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1886,36 +1858,36 @@
         <v>10</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4">
         <v>3</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="29"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="15">
         <f>SUM(C27:C33)</f>
         <v>3480</v>
       </c>
       <c r="D37" s="15">
         <f>SUM(D27:D36)</f>
-        <v>1523</v>
+        <v>1373</v>
       </c>
       <c r="E37" s="11"/>
-      <c r="F37" s="24"/>
+      <c r="F37" s="23"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
